--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value918.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value918.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.474953373156082</v>
+        <v>0.9655848145484924</v>
       </c>
       <c r="B1">
-        <v>1.655764543774875</v>
+        <v>2.123378753662109</v>
       </c>
       <c r="C1">
-        <v>2.008565244469847</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.683080540206983</v>
+        <v>1.823230743408203</v>
       </c>
       <c r="E1">
-        <v>0.8147029996322839</v>
+        <v>1.118522882461548</v>
       </c>
     </row>
   </sheetData>
